--- a/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Gia Công/Boomlist 2024/LE4C_BOM_1.33_No-op_231229.xlsx
+++ b/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Gia Công/Boomlist 2024/LE4C_BOM_1.33_No-op_231229.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BH VNET\VNET NEW\VNET\2. Báo cáo-Bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\Gia Công\Boomlist 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\VNET\2. Báo cáo - bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\Gia Công\Boomlist 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB52EC6-EC68-4C7C-B1AE-BD2E36FE8189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AE5FE8-C89B-4898-BD08-281EB1932B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1802,8 +1802,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2149,7 +2149,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="81">
@@ -2261,7 +2261,7 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2273,7 +2273,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2300,12 +2300,66 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2313,60 +2367,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2746,8 +2746,8 @@
   <dimension ref="A1:R86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2822,10 +2822,10 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A2" s="60">
+      <c r="A2" s="74">
         <v>1</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="70" t="s">
         <v>298</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2846,10 +2846,10 @@
       <c r="H2" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="64">
         <v>0</v>
       </c>
-      <c r="J2" s="67" t="s">
+      <c r="J2" s="64" t="s">
         <v>326</v>
       </c>
       <c r="K2" s="25"/>
@@ -2860,8 +2860,8 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A3" s="60"/>
-      <c r="B3" s="74"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="71"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
         <v>324</v>
@@ -2878,8 +2878,8 @@
       <c r="H3" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
       <c r="K3" s="25"/>
       <c r="L3" s="44"/>
       <c r="M3" s="1"/>
@@ -2888,10 +2888,10 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A4" s="60">
+      <c r="A4" s="74">
         <v>2</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="59" t="s">
         <v>298</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2912,24 +2912,24 @@
       <c r="H4" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I4" s="65">
+      <c r="I4" s="62">
         <v>1</v>
       </c>
-      <c r="J4" s="69" t="s">
+      <c r="J4" s="66" t="s">
         <v>252</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="44"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="77">
+      <c r="O4" s="55">
         <v>0</v>
       </c>
-      <c r="P4" s="77"/>
+      <c r="P4" s="55"/>
     </row>
     <row r="5" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A5" s="60"/>
-      <c r="B5" s="64"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>51</v>
@@ -2946,18 +2946,18 @@
       <c r="H5" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="I5" s="72"/>
-      <c r="J5" s="70"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="1"/>
       <c r="L5" s="44"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
     </row>
     <row r="6" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A6" s="60"/>
-      <c r="B6" s="56"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>51</v>
@@ -2974,14 +2974,14 @@
       <c r="H6" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="71"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="68"/>
       <c r="K6" s="1"/>
       <c r="L6" s="44"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
     </row>
     <row r="7" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
       <c r="A7" s="25">
@@ -3370,10 +3370,10 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:18" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A17" s="61">
+      <c r="A17" s="56">
         <v>13</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="56" t="s">
         <v>298</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -3394,7 +3394,7 @@
       <c r="H17" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="I17" s="67">
+      <c r="I17" s="64">
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -3408,8 +3408,8 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:18" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="17" t="s">
         <v>456</v>
       </c>
@@ -3428,7 +3428,7 @@
       <c r="H18" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="I18" s="68"/>
+      <c r="I18" s="65"/>
       <c r="J18" s="17" t="s">
         <v>247</v>
       </c>
@@ -3556,10 +3556,10 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:18" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A22" s="60">
+      <c r="A22" s="74">
         <v>17</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="59" t="s">
         <v>299</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -3580,10 +3580,10 @@
       <c r="H22" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="I22" s="61">
+      <c r="I22" s="56">
         <v>1</v>
       </c>
-      <c r="J22" s="61" t="s">
+      <c r="J22" s="56" t="s">
         <v>257</v>
       </c>
       <c r="K22" s="1"/>
@@ -3594,8 +3594,8 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:18" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A23" s="60"/>
-      <c r="B23" s="56"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="61"/>
       <c r="C23" s="4" t="s">
         <v>383</v>
       </c>
@@ -3614,8 +3614,8 @@
       <c r="H23" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
       <c r="K23" s="1"/>
       <c r="L23" s="44"/>
       <c r="M23" s="1"/>
@@ -3742,10 +3742,10 @@
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:18" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A27" s="61">
+      <c r="A27" s="56">
         <v>21</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="56" t="s">
         <v>301</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -3766,10 +3766,10 @@
       <c r="H27" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="I27" s="61">
+      <c r="I27" s="56">
         <v>1</v>
       </c>
-      <c r="J27" s="61" t="s">
+      <c r="J27" s="56" t="s">
         <v>266</v>
       </c>
       <c r="K27" s="1"/>
@@ -3780,8 +3780,8 @@
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:18" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A28" s="63"/>
-      <c r="B28" s="63"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
         <v>67</v>
@@ -3798,8 +3798,8 @@
       <c r="H28" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
       <c r="K28" s="1"/>
       <c r="L28" s="44"/>
       <c r="M28" s="1"/>
@@ -3884,10 +3884,10 @@
       <c r="P30" s="1"/>
     </row>
     <row r="31" spans="1:18" s="30" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A31" s="60">
+      <c r="A31" s="74">
         <v>24</v>
       </c>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="75" t="s">
         <v>207</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -3908,7 +3908,7 @@
       <c r="H31" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="I31" s="65">
+      <c r="I31" s="62">
         <v>1</v>
       </c>
       <c r="J31" s="4" t="s">
@@ -3922,8 +3922,8 @@
       <c r="P31" s="4"/>
     </row>
     <row r="32" spans="1:18" s="29" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A32" s="60"/>
-      <c r="B32" s="58"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="76"/>
       <c r="C32" s="3" t="s">
         <v>27</v>
       </c>
@@ -3942,7 +3942,7 @@
       <c r="H32" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="I32" s="72"/>
+      <c r="I32" s="69"/>
       <c r="J32" s="36" t="s">
         <v>267</v>
       </c>
@@ -3954,8 +3954,8 @@
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16" s="29" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A33" s="60"/>
-      <c r="B33" s="59"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="77"/>
       <c r="C33" s="3" t="s">
         <v>27</v>
       </c>
@@ -3974,7 +3974,7 @@
       <c r="H33" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="I33" s="66"/>
+      <c r="I33" s="63"/>
       <c r="J33" s="3" t="s">
         <v>267</v>
       </c>
@@ -4684,10 +4684,10 @@
       <c r="P51" s="1"/>
     </row>
     <row r="52" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A52" s="61">
+      <c r="A52" s="56">
         <v>43</v>
       </c>
-      <c r="B52" s="61" t="s">
+      <c r="B52" s="56" t="s">
         <v>331</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -4708,7 +4708,7 @@
       <c r="H52" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="I52" s="61">
+      <c r="I52" s="56">
         <v>1</v>
       </c>
       <c r="J52" s="1" t="s">
@@ -4722,8 +4722,8 @@
       <c r="P52" s="1"/>
     </row>
     <row r="53" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A53" s="62"/>
-      <c r="B53" s="62"/>
+      <c r="A53" s="58"/>
+      <c r="B53" s="58"/>
       <c r="C53" s="1"/>
       <c r="D53" s="3" t="s">
         <v>482</v>
@@ -4740,7 +4740,7 @@
       <c r="H53" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="I53" s="62"/>
+      <c r="I53" s="58"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="44"/>
@@ -4750,8 +4750,8 @@
       <c r="P53" s="1"/>
     </row>
     <row r="54" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A54" s="63"/>
-      <c r="B54" s="63"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="57"/>
       <c r="C54" s="1"/>
       <c r="D54" s="3" t="s">
         <v>483</v>
@@ -4768,7 +4768,7 @@
       <c r="H54" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="I54" s="63"/>
+      <c r="I54" s="57"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="44"/>
@@ -4816,10 +4816,10 @@
       <c r="P55" s="1"/>
     </row>
     <row r="56" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A56" s="60">
+      <c r="A56" s="74">
         <v>45</v>
       </c>
-      <c r="B56" s="55" t="s">
+      <c r="B56" s="59" t="s">
         <v>331</v>
       </c>
       <c r="C56" s="20"/>
@@ -4838,7 +4838,7 @@
       <c r="H56" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I56" s="61">
+      <c r="I56" s="56">
         <v>1</v>
       </c>
       <c r="J56" s="1" t="s">
@@ -4854,8 +4854,8 @@
       <c r="P56" s="1"/>
     </row>
     <row r="57" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A57" s="60"/>
-      <c r="B57" s="64"/>
+      <c r="A57" s="74"/>
+      <c r="B57" s="60"/>
       <c r="C57" s="21"/>
       <c r="D57" s="1" t="s">
         <v>95</v>
@@ -4872,7 +4872,7 @@
       <c r="H57" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="I57" s="62"/>
+      <c r="I57" s="58"/>
       <c r="J57" s="1" t="s">
         <v>286</v>
       </c>
@@ -4886,8 +4886,8 @@
       <c r="P57" s="1"/>
     </row>
     <row r="58" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A58" s="60"/>
-      <c r="B58" s="64"/>
+      <c r="A58" s="74"/>
+      <c r="B58" s="60"/>
       <c r="C58" s="21"/>
       <c r="D58" s="20" t="s">
         <v>95</v>
@@ -4904,7 +4904,7 @@
       <c r="H58" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="I58" s="62"/>
+      <c r="I58" s="58"/>
       <c r="J58" s="1" t="s">
         <v>286</v>
       </c>
@@ -4916,8 +4916,8 @@
       <c r="P58" s="1"/>
     </row>
     <row r="59" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A59" s="60"/>
-      <c r="B59" s="64"/>
+      <c r="A59" s="74"/>
+      <c r="B59" s="60"/>
       <c r="C59" s="21"/>
       <c r="D59" s="1" t="s">
         <v>95</v>
@@ -4934,7 +4934,7 @@
       <c r="H59" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="I59" s="62"/>
+      <c r="I59" s="58"/>
       <c r="J59" s="1" t="s">
         <v>286</v>
       </c>
@@ -4948,8 +4948,8 @@
       <c r="P59" s="1"/>
     </row>
     <row r="60" spans="1:16" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A60" s="60"/>
-      <c r="B60" s="56"/>
+      <c r="A60" s="74"/>
+      <c r="B60" s="61"/>
       <c r="C60" s="22"/>
       <c r="D60" s="1" t="s">
         <v>95</v>
@@ -4966,7 +4966,7 @@
       <c r="H60" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="I60" s="63"/>
+      <c r="I60" s="57"/>
       <c r="J60" s="1" t="s">
         <v>286</v>
       </c>
@@ -4978,10 +4978,10 @@
       <c r="P60" s="1"/>
     </row>
     <row r="61" spans="1:16" s="30" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A61" s="60">
+      <c r="A61" s="74">
         <v>46</v>
       </c>
-      <c r="B61" s="75" t="s">
+      <c r="B61" s="72" t="s">
         <v>331</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -5002,7 +5002,7 @@
       <c r="H61" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="I61" s="65">
+      <c r="I61" s="62">
         <v>1</v>
       </c>
       <c r="J61" s="3" t="s">
@@ -5016,8 +5016,8 @@
       <c r="P61" s="4"/>
     </row>
     <row r="62" spans="1:16" s="29" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A62" s="60"/>
-      <c r="B62" s="76"/>
+      <c r="A62" s="74"/>
+      <c r="B62" s="73"/>
       <c r="C62" s="16" t="s">
         <v>39</v>
       </c>
@@ -5036,7 +5036,7 @@
       <c r="H62" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="I62" s="66"/>
+      <c r="I62" s="63"/>
       <c r="J62" s="16" t="s">
         <v>287</v>
       </c>
@@ -5124,10 +5124,10 @@
       <c r="P64" s="54"/>
     </row>
     <row r="65" spans="1:17" s="9" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A65" s="60">
+      <c r="A65" s="74">
         <v>49</v>
       </c>
-      <c r="B65" s="55" t="s">
+      <c r="B65" s="59" t="s">
         <v>333</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -5162,8 +5162,8 @@
       <c r="P65" s="1"/>
     </row>
     <row r="66" spans="1:17" s="29" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A66" s="60"/>
-      <c r="B66" s="56"/>
+      <c r="A66" s="74"/>
+      <c r="B66" s="61"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3" t="s">
         <v>91</v>
@@ -5840,12 +5840,19 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="I56:I60"/>
     <mergeCell ref="B56:B60"/>
     <mergeCell ref="I61:I62"/>
@@ -5862,19 +5869,12 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="I27:I28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
